--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\RKK_USER02_会員登録画面_エビデンス - コピー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3DE787-351F-47DE-B329-3D054460A96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BD3BAE-E6CB-4DA2-B3A3-5A5032388F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ショット-1" sheetId="1" r:id="rId1"/>
@@ -3096,10 +3096,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3400,7 +3396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="W7:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
@@ -3477,7 +3473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F1B685-796F-4E42-84CF-95D3AC606CC0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -3507,7 +3503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF54CB6-E1DA-474F-8976-65F24567EE7E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
@@ -3523,7 +3519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E647BCE-FFBC-4E2B-8FBB-2B2B42E46E29}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="U55" sqref="U55"/>
     </sheetView>
   </sheetViews>
@@ -3539,7 +3535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E7BC00-D444-4697-9D13-148BF29D0582}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" zoomScale="82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="82" workbookViewId="0">
       <selection activeCell="Z52" sqref="Z52"/>
     </sheetView>
   </sheetViews>
@@ -3569,7 +3565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B245FBF6-F736-43C1-976C-4EC873C4B016}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
@@ -3617,7 +3613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A53FD20-0308-4EF3-9D50-24366342271A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>

--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BD3BAE-E6CB-4DA2-B3A3-5A5032388F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB11A06-D982-4B4A-AB8D-7E94CDD99D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ショット-1" sheetId="1" r:id="rId1"/>
@@ -3396,7 +3396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="W7:W34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
@@ -3473,7 +3473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F1B685-796F-4E42-84CF-95D3AC606CC0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -3489,7 +3489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4922B7-BF63-436A-B6F2-439952B46D0B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
@@ -3535,7 +3535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E7BC00-D444-4697-9D13-148BF29D0582}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="82" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScale="82" workbookViewId="0">
       <selection activeCell="Z52" sqref="Z52"/>
     </sheetView>
   </sheetViews>

--- a/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/Koya_USER02_会員登録画面_エビデンス/B-画面項目確認.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\50_単体テスト(UT)\02_エビデンス\Koya_USER02_会員登録画面_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB11A06-D982-4B4A-AB8D-7E94CDD99D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08D14D9-95E8-4C8A-A86B-9ADA1261C58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ショット-1" sheetId="1" r:id="rId1"/>
@@ -762,10 +762,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>230642</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>163078</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>15292</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -789,7 +789,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="14632442" cy="8259328"/>
+          <a:ext cx="15102892" cy="8524874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -802,14 +802,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>639508</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>39069</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>14813</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -832,8 +832,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8572500"/>
-          <a:ext cx="9554908" cy="6944694"/>
+          <a:off x="0" y="9296399"/>
+          <a:ext cx="15078074" cy="10959039"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -844,16 +844,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -868,8 +868,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2676525" y="13277850"/>
-          <a:ext cx="733425" cy="133350"/>
+          <a:off x="4238625" y="16744949"/>
+          <a:ext cx="1181100" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -907,16 +907,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>219074</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>228599</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -931,7 +931,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6667500" y="5457824"/>
+          <a:off x="6924675" y="5610224"/>
           <a:ext cx="2952750" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -977,14 +977,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>649035</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>67648</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>74948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1007,8 +1007,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8572500"/>
-          <a:ext cx="9564435" cy="6973273"/>
+          <a:off x="0" y="9315450"/>
+          <a:ext cx="15087600" cy="11000123"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1025,10 +1025,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>230642</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>201183</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>221159</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1052,7 +1052,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="14632442" cy="8297433"/>
+          <a:ext cx="15087600" cy="8555534"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1063,16 +1063,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1087,7 +1087,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6638925" y="4781550"/>
+          <a:off x="6886575" y="4953000"/>
           <a:ext cx="2952750" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1126,16 +1126,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1150,8 +1150,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2705100" y="13277851"/>
-          <a:ext cx="1524000" cy="171450"/>
+          <a:off x="4276725" y="16783051"/>
+          <a:ext cx="2419350" cy="219074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1664,15 +1664,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>109302</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>156148</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>312818</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>156147</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>673719</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>107475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1694,8 +1694,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="109302" y="156148"/>
-          <a:ext cx="15318598" cy="8666188"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15065762" cy="8889060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1707,15 +1707,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>156148</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>46844</xdr:rowOff>
+      <xdr:rowOff>380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>640205</xdr:colOff>
+      <xdr:colOff>673719</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>112798</xdr:rowOff>
+      <xdr:rowOff>204015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1738,8 +1738,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="156148" y="9181475"/>
-          <a:ext cx="14912090" cy="10371692"/>
+          <a:off x="0" y="9513764"/>
+          <a:ext cx="15065762" cy="10936684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1750,14 +1750,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>124917</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139391</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>218607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>608974</xdr:colOff>
+      <xdr:colOff>608975</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>124918</xdr:rowOff>
     </xdr:to>
@@ -1774,8 +1774,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4934261" y="12398115"/>
-          <a:ext cx="2545205" cy="374754"/>
+          <a:off x="4251403" y="12903119"/>
+          <a:ext cx="3210926" cy="394177"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1814,15 +1814,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>246087</xdr:colOff>
+      <xdr:colOff>60234</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>168014</xdr:rowOff>
+      <xdr:rowOff>17008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>452827</xdr:colOff>
+      <xdr:colOff>266974</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>187377</xdr:rowOff>
+      <xdr:rowOff>36371</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1837,8 +1837,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7116579" y="2510227"/>
-          <a:ext cx="2954937" cy="253584"/>
+          <a:off x="6913588" y="2456337"/>
+          <a:ext cx="2948081" cy="263296"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1881,16 +1881,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>66313</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>34016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>42410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1913,8 +1913,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="9048749"/>
-          <a:ext cx="11553825" cy="8400689"/>
+          <a:off x="0" y="9586230"/>
+          <a:ext cx="14954250" cy="11275109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1925,16 +1925,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>156482</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>35380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1949,8 +1949,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3952875" y="14125575"/>
-          <a:ext cx="1628775" cy="247650"/>
+          <a:off x="4238625" y="16445594"/>
+          <a:ext cx="2061482" cy="236763"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2058,9 +2058,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>230642</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>220236</xdr:rowOff>
+      <xdr:colOff>680356</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>240084</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2084,7 +2084,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="14632442" cy="8316486"/>
+          <a:ext cx="14967856" cy="8812584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2095,16 +2095,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>511410</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>62375</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>575336</xdr:colOff>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>126301</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>63926</xdr:rowOff>
+      <xdr:rowOff>172783</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2119,8 +2119,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6667501" y="2838322"/>
-          <a:ext cx="1431946" cy="300453"/>
+          <a:off x="6865946" y="3048000"/>
+          <a:ext cx="1424641" cy="308854"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2165,14 +2165,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>173580</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1960</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2195,8 +2195,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8572500"/>
-          <a:ext cx="11382374" cy="8269830"/>
+          <a:off x="0" y="9305924"/>
+          <a:ext cx="15089560" cy="10963275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2207,16 +2207,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2231,8 +2231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3200400" y="13916025"/>
-          <a:ext cx="1590675" cy="238125"/>
+          <a:off x="4257675" y="16459200"/>
+          <a:ext cx="2162175" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2334,15 +2334,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>392567</xdr:colOff>
+      <xdr:colOff>664828</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>105934</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2365,8 +2365,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161925" y="133350"/>
-          <a:ext cx="14632442" cy="8306959"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15066628" cy="8553450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2378,15 +2378,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:colOff>142876</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
+      <xdr:colOff>200026</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2401,7 +2401,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8286751" y="3028950"/>
+          <a:off x="8372476" y="2971800"/>
           <a:ext cx="1428750" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2451,10 +2451,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>230642</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>220236</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>8092</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2478,7 +2478,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="14632442" cy="8316486"/>
+          <a:ext cx="15097124" cy="8580592"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2491,14 +2491,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>639508</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>48595</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>674525</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2521,8 +2521,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8572500"/>
-          <a:ext cx="9554908" cy="6954220"/>
+          <a:off x="0" y="9296400"/>
+          <a:ext cx="15076325" cy="10972800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2533,16 +2533,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2557,8 +2557,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2686050" y="12525375"/>
-          <a:ext cx="1400175" cy="228600"/>
+          <a:off x="4248150" y="15659100"/>
+          <a:ext cx="2219325" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2596,16 +2596,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2620,7 +2620,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6657975" y="3543300"/>
+          <a:off x="6905625" y="3648075"/>
           <a:ext cx="2933700" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2670,10 +2670,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>230642</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>210709</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>230981</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2697,7 +2697,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="14632442" cy="8306959"/>
+          <a:ext cx="15087600" cy="8565356"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2710,14 +2710,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>629982</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>48595</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>685644</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2740,8 +2740,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8572500"/>
-          <a:ext cx="9545382" cy="6954220"/>
+          <a:off x="0" y="9286875"/>
+          <a:ext cx="15087444" cy="10991850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2752,16 +2752,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2776,8 +2776,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2695575" y="12915900"/>
-          <a:ext cx="1581150" cy="190500"/>
+          <a:off x="4248149" y="16211549"/>
+          <a:ext cx="2562225" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2815,16 +2815,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2839,7 +2839,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7315200" y="4200524"/>
+          <a:off x="7553325" y="4333874"/>
           <a:ext cx="542925" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2884,15 +2884,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>649035</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>20017</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>671939</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>199718</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2915,8 +2915,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8572500"/>
-          <a:ext cx="9564435" cy="6925642"/>
+          <a:off x="1" y="9578769"/>
+          <a:ext cx="15189882" cy="11268691"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2933,10 +2933,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>230642</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>182130</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>206901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2960,7 +2960,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="14632442" cy="8278380"/>
+          <a:ext cx="15097124" cy="8541276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2972,15 +2972,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>579399</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>493674</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19282</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2995,8 +2995,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7867650" y="4200525"/>
-          <a:ext cx="600075" cy="209550"/>
+          <a:off x="8118088" y="4438650"/>
+          <a:ext cx="599610" cy="215358"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3034,16 +3034,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>159834</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>31130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>662104</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>69695</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3058,8 +3058,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2705100" y="13563600"/>
-          <a:ext cx="1647825" cy="200025"/>
+          <a:off x="4271846" y="17594301"/>
+          <a:ext cx="2558276" cy="282498"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3473,7 +3473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F1B685-796F-4E42-84CF-95D3AC606CC0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -3489,7 +3489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4922B7-BF63-436A-B6F2-439952B46D0B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
@@ -3519,7 +3519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E647BCE-FFBC-4E2B-8FBB-2B2B42E46E29}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="U55" sqref="U55"/>
     </sheetView>
   </sheetViews>
@@ -3535,7 +3535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E7BC00-D444-4697-9D13-148BF29D0582}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="82" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Z52" sqref="Z52"/>
     </sheetView>
   </sheetViews>
@@ -3551,7 +3551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEA42D2-7D5A-4AFB-851A-4079E0B2B269}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B47" zoomScale="95" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
@@ -3565,7 +3565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B245FBF6-F736-43C1-976C-4EC873C4B016}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
@@ -3581,7 +3581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBA5E7C-35EA-42DF-AC91-18B0A2431776}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -3597,7 +3597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020B088F-9400-4F7F-A74A-911C341442AA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -3613,7 +3613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A53FD20-0308-4EF3-9D50-24366342271A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" zoomScale="82" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
